--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -632,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,8 +1163,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -256,9 +256,6 @@
     <t>0.05</t>
   </si>
   <si>
-    <t>Reviewver</t>
-  </si>
-  <si>
     <t>Review kode til OC 6</t>
   </si>
   <si>
@@ -269,6 +266,30 @@
   </si>
   <si>
     <t>DOM og SD til angiv vægt</t>
+  </si>
+  <si>
+    <t>OC 12</t>
+  </si>
+  <si>
+    <t>Review af OC 8</t>
+  </si>
+  <si>
+    <t>Test Suite OC 9</t>
+  </si>
+  <si>
+    <t>Design OC 11</t>
+  </si>
+  <si>
+    <t>Design OC 12</t>
+  </si>
+  <si>
+    <t>Rettet fejl for Test Suite 09</t>
+  </si>
+  <si>
+    <t>Implementer test suite 9</t>
+  </si>
+  <si>
+    <t>Ret fejl OC 12 efter review</t>
   </si>
 </sst>
 </file>
@@ -640,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,10 +1149,10 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
         <v>76</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
       </c>
       <c r="G28" s="5">
         <v>0.375</v>
@@ -1148,10 +1169,10 @@
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="5">
         <v>0.40277777777777773</v>
@@ -1160,7 +1181,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1192,162 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42814</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.37847222222222227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Tesuite OC 5</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>Review kode til OC 6</t>
   </si>
   <si>
@@ -290,6 +287,15 @@
   </si>
   <si>
     <t>Ret fejl OC 12 efter review</t>
+  </si>
+  <si>
+    <t>GUI, fra engelsk til dansk</t>
+  </si>
+  <si>
+    <t>GUI, gjort mellemregninger mere overskuelige</t>
+  </si>
+  <si>
+    <t>GUI, videre arbejde og rettelser på mellemregninger</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +680,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
@@ -756,9 +762,6 @@
       <c r="H6" s="5">
         <v>0.5</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,7 +784,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
@@ -806,9 +809,6 @@
       <c r="H9" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -829,9 +829,6 @@
       <c r="H10" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -853,7 +850,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
@@ -878,9 +875,6 @@
       <c r="H13" s="5">
         <v>0.46527777777777773</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -901,9 +895,6 @@
       <c r="H14" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -925,7 +916,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -950,9 +941,6 @@
       <c r="H17" s="5">
         <v>0.3576388888888889</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -973,9 +961,6 @@
       <c r="H18" s="5">
         <v>0.4375</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -996,9 +981,6 @@
       <c r="H19" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1019,9 +1001,6 @@
       <c r="H20" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1043,7 +1022,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1068,9 +1047,6 @@
       <c r="H23" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1091,9 +1067,6 @@
       <c r="H24" s="5">
         <v>0.5625</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1114,9 +1087,6 @@
       <c r="H25" s="5">
         <v>0.58680555555555558</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1137,8 +1107,8 @@
       <c r="H26" s="5">
         <v>0.61805555555555558</v>
       </c>
-      <c r="I26" t="s">
-        <v>75</v>
+      <c r="I26">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,7 +1122,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="5">
         <v>0.375</v>
@@ -1172,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="5">
         <v>0.40277777777777773</v>
@@ -1181,7 +1151,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,16 +1165,13 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="5">
         <v>0.34027777777777773</v>
       </c>
       <c r="H31" s="5">
         <v>0.375</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,7 +1185,7 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="5">
         <v>0.3888888888888889</v>
@@ -1238,16 +1205,13 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="5">
         <v>0.40277777777777773</v>
       </c>
       <c r="H33" s="5">
         <v>0.43402777777777773</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1261,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="5">
         <v>0.44444444444444442</v>
@@ -1281,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="5">
         <v>0.51041666666666663</v>
@@ -1298,16 +1262,19 @@
         <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="5">
         <v>0.52083333333333337</v>
       </c>
       <c r="H36" s="5">
         <v>0.53472222222222221</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,7 +1288,7 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="5">
         <v>0.34375</v>
@@ -1338,16 +1305,79 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="5">
         <v>0.37847222222222227</v>
       </c>
       <c r="H39" s="5">
         <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42815</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>GUI, videre arbejde og rettelser på mellemregninger</t>
+  </si>
+  <si>
+    <t>Test for flydespaending</t>
+  </si>
+  <si>
+    <t>Test Analysist</t>
+  </si>
+  <si>
+    <t>Test for dimensionerende kraft(Ikke færdig)</t>
   </si>
 </sst>
 </file>
@@ -667,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1085,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
         <v>73</v>
@@ -1096,7 +1105,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
         <v>74</v>
@@ -1202,7 +1211,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
         <v>81</v>
@@ -1325,7 +1334,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>87</v>
@@ -1345,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
         <v>88</v>
@@ -1365,7 +1374,7 @@
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
         <v>89</v>
@@ -1378,6 +1387,49 @@
       </c>
       <c r="I42">
         <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet(Tolga).xlsx
@@ -304,7 +304,7 @@
     <t>Test Analysist</t>
   </si>
   <si>
-    <t>Test for dimensionerende kraft(Ikke færdig)</t>
+    <t>Test for dimensionerende kraft</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
